--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3413735.398924603</v>
+        <v>-3414447.663678349</v>
       </c>
     </row>
     <row r="7">
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.1776483877525586</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>185.624283999399</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="G11" t="n">
-        <v>128.7864439365747</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700849</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294982</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013696</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692369</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204229</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824912</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
         <v>52.47830382393114</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.4496435105042</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T12" t="n">
-        <v>76.58428687977569</v>
+        <v>36.82929343736549</v>
       </c>
       <c r="U12" t="n">
-        <v>188.4860450762372</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586124</v>
+        <v>114.2185340393025</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747058</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1711505899296</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448461</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386646</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345547</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433102</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U13" t="n">
         <v>110.5147946356657</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490889</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870152</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462741</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>99.89818997006307</v>
+        <v>156.1199278312719</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.7436753029498</v>
+        <v>16.74367530294987</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
         <v>188.4860450762372</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824883</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050417</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
-        <v>188.4860450762372</v>
+        <v>36.82929343736549</v>
       </c>
       <c r="U15" t="n">
-        <v>188.4860450762372</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V15" t="n">
-        <v>99.35003650981869</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747055</v>
+        <v>133.4453598430756</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386644</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345544</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256512</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591061</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695907</v>
       </c>
       <c r="E17" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636794</v>
       </c>
       <c r="F17" t="n">
         <v>105.7473211947453</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040497</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426075</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388381</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049868</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943792</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318168</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
         <v>52.47830382393114</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>85.36444961297101</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>119.3699594512382</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256512</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591061</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695907</v>
       </c>
       <c r="E20" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636794</v>
       </c>
       <c r="F20" t="n">
         <v>105.7473211947453</v>
@@ -2096,7 +2096,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426075</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388421</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049868</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943792</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318168</v>
       </c>
     </row>
     <row r="21">
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>188.4860450762372</v>
       </c>
       <c r="W21" t="n">
-        <v>106.6665152207952</v>
+        <v>159.1448190447264</v>
       </c>
       <c r="X21" t="n">
         <v>188.4860450762372</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256512</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591061</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695907</v>
       </c>
       <c r="E23" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636794</v>
       </c>
       <c r="F23" t="n">
         <v>105.7473211947453</v>
@@ -2333,7 +2333,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426075</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388381</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049868</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943792</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318168</v>
       </c>
     </row>
     <row r="24">
@@ -2400,10 +2400,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>12.67594819859063</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>171.8482632751692</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.5992110257042</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7174680290497</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
         <v>124.2841302900982</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442044</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754888</v>
+        <v>14.03037772754891</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335626</v>
+        <v>8.978123394335654</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945422</v>
+        <v>36.66251709945425</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3917542570229</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
         <v>124.4084344736378</v>
       </c>
       <c r="X26" t="n">
-        <v>146.294684942577</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7975380663208</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777396</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671954</v>
+        <v>23.74004232671956</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327317</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21655422488251</v>
+        <v>62.11594000329694</v>
       </c>
       <c r="X27" t="n">
-        <v>77.80764226800659</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9504995808674</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174296</v>
+        <v>10.27364790174299</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307758</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232083</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720625</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113452</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039342</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2841302900983</v>
+        <v>124.2841302900982</v>
       </c>
       <c r="E29" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7112202878845</v>
+        <v>189.7112202878844</v>
       </c>
       <c r="G29" t="n">
         <v>205.3502055971889</v>
@@ -2810,7 +2810,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442048</v>
+        <v>27.52412960442045</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754895</v>
+        <v>14.03037772754892</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335693</v>
+        <v>8.978123394335665</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945425</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4084344736379</v>
+        <v>124.4084344736378</v>
       </c>
       <c r="X29" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7975380663209</v>
+        <v>168.7975380663208</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>19.66704290511433</v>
+        <v>11.08567218668398</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777453</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671959</v>
+        <v>23.74004232671956</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488254</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341585</v>
+        <v>3.824885087341556</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896597</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174299</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113509</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039399</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664837</v>
+        <v>159.6893265664838</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698292</v>
+        <v>135.8075835698293</v>
       </c>
       <c r="D32" t="n">
         <v>123.3742458308777</v>
@@ -3047,7 +3047,7 @@
         <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519993</v>
+        <v>26.61424514519996</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832837</v>
+        <v>13.1204932683284</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115119</v>
+        <v>8.068238935115147</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023371</v>
+        <v>35.75263264023374</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978024</v>
+        <v>106.4818697978025</v>
       </c>
       <c r="W32" t="n">
         <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833565</v>
+        <v>145.3848004833566</v>
       </c>
       <c r="Y32" t="n">
         <v>167.8876536071003</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>105.4119417637512</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423172</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.573143475556889</v>
+        <v>0.5731434755569175</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749903</v>
+        <v>22.83015786749906</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405266</v>
+        <v>233.181771702138</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566201</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121021</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676033</v>
+        <v>8.986372322676061</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164689</v>
+        <v>21.04061512164692</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522451</v>
+        <v>9.36376344252248</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385708</v>
+        <v>74.25864467385711</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310032</v>
+        <v>30.71110137310035</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798574</v>
+        <v>75.91279327798577</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892945</v>
+        <v>7.521541596892973</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818835</v>
+        <v>2.743359002818863</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>65.37377636525662</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3351,10 +3351,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.763696251716519</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>65.37377636525662</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>132.1412484131904</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423172</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>18.04883499404477</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046208</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>200.4555577652801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4059,13 +4059,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>142.314958402388</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>21.75429646705709</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.69242462046208</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4802,10 +4802,10 @@
         <v>0.4607923704016597</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L8" t="n">
         <v>0.2813495544899843</v>
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="D9" t="n">
-        <v>3.833742919262513</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="E9" t="n">
         <v>3.833742919262513</v>
@@ -4884,19 +4884,19 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
         <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4905,28 +4905,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.2577812056658</v>
+        <v>563.5542357834971</v>
       </c>
       <c r="C11" t="n">
-        <v>379.2577812056658</v>
+        <v>563.5542357834971</v>
       </c>
       <c r="D11" t="n">
-        <v>379.2577812056658</v>
+        <v>563.5542357834971</v>
       </c>
       <c r="E11" t="n">
-        <v>379.2577812056658</v>
+        <v>376.0549590164275</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2577812056658</v>
+        <v>185.6650144949758</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1704640980146</v>
+        <v>185.6650144949758</v>
       </c>
       <c r="H11" t="n">
-        <v>78.58433320913785</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
         <v>115.4202186115222</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4202186115222</v>
+        <v>128.0150651054814</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1313769505586</v>
+        <v>314.6162497309563</v>
       </c>
       <c r="M11" t="n">
-        <v>242.9825005639039</v>
+        <v>395.4673733443015</v>
       </c>
       <c r="N11" t="n">
-        <v>318.3934270992709</v>
+        <v>470.7843166479636</v>
       </c>
       <c r="O11" t="n">
-        <v>504.9946117247457</v>
+        <v>504.9946117247458</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852706</v>
+        <v>666.4050806852707</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686359</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664773</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695846</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U11" t="n">
-        <v>569.6477257271175</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="V11" t="n">
-        <v>569.6477257271175</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="W11" t="n">
-        <v>569.6477257271175</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="X11" t="n">
-        <v>569.6477257271175</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Y11" t="n">
-        <v>569.6477257271175</v>
+        <v>753.9441803049489</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>227.8054786961747</v>
+        <v>346.4351289142539</v>
       </c>
       <c r="C12" t="n">
-        <v>218.3343800347354</v>
+        <v>336.9640302528146</v>
       </c>
       <c r="D12" t="n">
-        <v>218.3343800347354</v>
+        <v>336.9640302528146</v>
       </c>
       <c r="E12" t="n">
-        <v>218.3343800347354</v>
+        <v>336.9640302528146</v>
       </c>
       <c r="F12" t="n">
-        <v>218.3343800347354</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08727130703952</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08727130703952</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08727130703952</v>
+        <v>68.08727130703953</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936455</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743615</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M12" t="n">
         <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831025</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263737</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398748</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398748</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S12" t="n">
         <v>733.4155611444161</v>
       </c>
       <c r="T12" t="n">
-        <v>656.0576956092891</v>
+        <v>696.2142546420267</v>
       </c>
       <c r="U12" t="n">
-        <v>465.6677510878374</v>
+        <v>636.5311154205039</v>
       </c>
       <c r="V12" t="n">
-        <v>402.5292085970684</v>
+        <v>521.1588588151478</v>
       </c>
       <c r="W12" t="n">
-        <v>313.0718149329567</v>
+        <v>431.7014651510361</v>
       </c>
       <c r="X12" t="n">
-        <v>273.5049961552501</v>
+        <v>392.1346463733294</v>
       </c>
       <c r="Y12" t="n">
-        <v>227.8054786961747</v>
+        <v>346.4351289142539</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882616</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="C13" t="n">
-        <v>27.16621540761913</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="D13" t="n">
-        <v>27.16621540761913</v>
+        <v>59.79573787046105</v>
       </c>
       <c r="E13" t="n">
-        <v>27.16621540761913</v>
+        <v>95.89670428140388</v>
       </c>
       <c r="F13" t="n">
-        <v>27.16621540761913</v>
+        <v>134.7194370961873</v>
       </c>
       <c r="G13" t="n">
-        <v>36.51276691374871</v>
+        <v>144.0659886023168</v>
       </c>
       <c r="H13" t="n">
-        <v>36.51276691374871</v>
+        <v>156.259936394876</v>
       </c>
       <c r="I13" t="n">
-        <v>36.51276691374871</v>
+        <v>169.4150164056175</v>
       </c>
       <c r="J13" t="n">
-        <v>36.51276691374871</v>
+        <v>226.7362049482029</v>
       </c>
       <c r="K13" t="n">
-        <v>36.51276691374871</v>
+        <v>336.7336726804654</v>
       </c>
       <c r="L13" t="n">
-        <v>36.51276691374871</v>
+        <v>481.2596282864344</v>
       </c>
       <c r="M13" t="n">
-        <v>187.9041013920177</v>
+        <v>520.770111631706</v>
       </c>
       <c r="N13" t="n">
-        <v>331.1045263065715</v>
+        <v>520.770111631706</v>
       </c>
       <c r="O13" t="n">
-        <v>470.3568865385321</v>
+        <v>520.770111631706</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385321</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317058</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429518</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566332</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461978</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536062</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365265</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W13" t="n">
-        <v>98.6922174680474</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471253</v>
+        <v>54.47232700471255</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07888360609897</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.3760907235741</v>
+        <v>172.7757804053635</v>
       </c>
       <c r="C14" t="n">
-        <v>306.3760907235741</v>
+        <v>172.7757804053635</v>
       </c>
       <c r="D14" t="n">
-        <v>306.3760907235741</v>
+        <v>172.7757804053635</v>
       </c>
       <c r="E14" t="n">
-        <v>306.3760907235741</v>
+        <v>172.7757804053635</v>
       </c>
       <c r="F14" t="n">
-        <v>115.9861462021223</v>
+        <v>172.7757804053635</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I14" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4202186115223</v>
+        <v>285.1128385102955</v>
       </c>
       <c r="L14" t="n">
-        <v>162.1313769505586</v>
+        <v>471.7140231357703</v>
       </c>
       <c r="M14" t="n">
-        <v>242.9825005639039</v>
+        <v>552.5651467491156</v>
       </c>
       <c r="N14" t="n">
-        <v>429.5836851893787</v>
+        <v>627.8820900527776</v>
       </c>
       <c r="O14" t="n">
-        <v>504.9946117247457</v>
+        <v>662.0923851295598</v>
       </c>
       <c r="P14" t="n">
         <v>666.4050806852706</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049489</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686359</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664773</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="T14" t="n">
-        <v>687.1559797664773</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="U14" t="n">
-        <v>687.1559797664773</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="V14" t="n">
-        <v>687.1559797664773</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="W14" t="n">
-        <v>687.1559797664773</v>
+        <v>737.0313769686358</v>
       </c>
       <c r="X14" t="n">
-        <v>687.1559797664773</v>
+        <v>553.5556694482669</v>
       </c>
       <c r="Y14" t="n">
-        <v>496.7660352450258</v>
+        <v>363.1657249268152</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.5583699684788</v>
+        <v>174.7970909952342</v>
       </c>
       <c r="C15" t="n">
-        <v>68.08727130703953</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="D15" t="n">
-        <v>68.08727130703953</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08727130703953</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08727130703953</v>
+        <v>165.3259923337948</v>
       </c>
       <c r="G15" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J15" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K15" t="n">
         <v>53.03690762936455</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3626975743615</v>
+        <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
         <v>352.0310247576277</v>
@@ -5382,25 +5382,25 @@
         <v>747.0010596398748</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4155611444161</v>
+        <v>733.415561144416</v>
       </c>
       <c r="T15" t="n">
-        <v>543.0256166229643</v>
+        <v>696.2142546420266</v>
       </c>
       <c r="U15" t="n">
-        <v>352.6356721015126</v>
+        <v>636.5311154205037</v>
       </c>
       <c r="V15" t="n">
-        <v>252.2820998693725</v>
+        <v>573.3925729297348</v>
       </c>
       <c r="W15" t="n">
-        <v>162.8247062052608</v>
+        <v>438.5992801589513</v>
       </c>
       <c r="X15" t="n">
-        <v>123.2578874275541</v>
+        <v>399.0324613812446</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.5583699684788</v>
+        <v>353.3329439221692</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.59847835882619</v>
+        <v>15.59847835882613</v>
       </c>
       <c r="C16" t="n">
-        <v>15.59847835882619</v>
+        <v>15.59847835882613</v>
       </c>
       <c r="D16" t="n">
-        <v>15.59847835882619</v>
+        <v>48.2280008216681</v>
       </c>
       <c r="E16" t="n">
-        <v>15.59847835882619</v>
+        <v>69.67313951892859</v>
       </c>
       <c r="F16" t="n">
-        <v>15.59847835882619</v>
+        <v>69.67313951892859</v>
       </c>
       <c r="G16" t="n">
-        <v>15.59847835882619</v>
+        <v>69.67313951892859</v>
       </c>
       <c r="H16" t="n">
-        <v>15.59847835882619</v>
+        <v>69.67313951892859</v>
       </c>
       <c r="I16" t="n">
-        <v>15.59847835882619</v>
+        <v>69.67313951892859</v>
       </c>
       <c r="J16" t="n">
-        <v>15.59847835882619</v>
+        <v>126.994328061514</v>
       </c>
       <c r="K16" t="n">
-        <v>118.5285917637472</v>
+        <v>236.9917957937764</v>
       </c>
       <c r="L16" t="n">
-        <v>263.0545473697163</v>
+        <v>381.5177513997455</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0545473697163</v>
+        <v>381.5177513997455</v>
       </c>
       <c r="N16" t="n">
-        <v>263.0545473697163</v>
+        <v>381.5177513997455</v>
       </c>
       <c r="O16" t="n">
-        <v>402.3069076016768</v>
+        <v>520.770111631706</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7701116317057</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317057</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429517</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536061</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471255</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="17">
@@ -5489,67 +5489,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731528</v>
+        <v>410.0798406731531</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135982</v>
+        <v>369.3523344135984</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879739</v>
+        <v>294.5776034879742</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336857</v>
+        <v>187.762127533686</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151388</v>
       </c>
       <c r="H17" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993045</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95425539993045</v>
+        <v>38.41417867930058</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95425539993045</v>
+        <v>38.41417867930058</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6654137389668</v>
+        <v>85.12533701833695</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5165373523121</v>
+        <v>165.9764606316822</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8334806559741</v>
+        <v>241.2934039353443</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0437757327564</v>
+        <v>275.5036990121265</v>
       </c>
       <c r="P17" t="n">
-        <v>308.0437757327564</v>
+        <v>275.5036990121265</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1048836376016</v>
+        <v>462.1048836376013</v>
       </c>
       <c r="R17" t="n">
-        <v>563.6457080374512</v>
+        <v>563.645708037451</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893855</v>
+        <v>632.8798941893853</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312009</v>
+        <v>707.1158121312008</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049489</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394096</v>
+        <v>730.2796801394095</v>
       </c>
       <c r="W17" t="n">
         <v>689.4266140985019</v>
@@ -5558,7 +5558,7 @@
         <v>626.4662243515949</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342395</v>
+        <v>540.7756799342396</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.4995455740758</v>
+        <v>660.774342859096</v>
       </c>
       <c r="C18" t="n">
-        <v>68.08727130703953</v>
+        <v>660.774342859096</v>
       </c>
       <c r="D18" t="n">
-        <v>68.08727130703953</v>
+        <v>660.774342859096</v>
       </c>
       <c r="E18" t="n">
-        <v>68.08727130703953</v>
+        <v>487.2111389805104</v>
       </c>
       <c r="F18" t="n">
-        <v>68.08727130703953</v>
+        <v>326.7834226977545</v>
       </c>
       <c r="G18" t="n">
-        <v>68.08727130703953</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="H18" t="n">
-        <v>68.08727130703953</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08727130703953</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936455</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M18" t="n">
         <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049489</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398748</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398748</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398748</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0010596398749</v>
+        <v>660.774342859096</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0010596398749</v>
+        <v>660.774342859096</v>
       </c>
       <c r="V18" t="n">
-        <v>626.4253430224626</v>
+        <v>660.774342859096</v>
       </c>
       <c r="W18" t="n">
-        <v>626.4253430224626</v>
+        <v>660.774342859096</v>
       </c>
       <c r="X18" t="n">
-        <v>626.4253430224626</v>
+        <v>660.774342859096</v>
       </c>
       <c r="Y18" t="n">
-        <v>436.0353985010109</v>
+        <v>660.774342859096</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417496</v>
+        <v>463.3662739417489</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731524</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135983</v>
+        <v>369.3523344135978</v>
       </c>
       <c r="E20" t="n">
-        <v>294.577603487974</v>
+        <v>294.5776034879736</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336858</v>
+        <v>187.7621275336854</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151388</v>
       </c>
       <c r="H20" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993045</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5554400254053</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2665983644417</v>
+        <v>117.6654137389669</v>
       </c>
       <c r="M20" t="n">
-        <v>385.1177219777869</v>
+        <v>198.5165373523121</v>
       </c>
       <c r="N20" t="n">
-        <v>460.434665281449</v>
+        <v>273.8334806559742</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6449603582312</v>
+        <v>308.0437757327564</v>
       </c>
       <c r="P20" t="n">
-        <v>494.6449603582312</v>
+        <v>308.0437757327564</v>
       </c>
       <c r="Q20" t="n">
-        <v>494.6449603582312</v>
+        <v>462.1048836376013</v>
       </c>
       <c r="R20" t="n">
-        <v>563.6457080374512</v>
+        <v>563.645708037451</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893855</v>
+        <v>632.8798941893853</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312009</v>
+        <v>707.1158121312008</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049489</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394096</v>
+        <v>730.2796801394089</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985012</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515942</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342396</v>
+        <v>540.775679934239</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K21" t="n">
         <v>53.03690762936455</v>
@@ -5868,13 +5868,13 @@
         <v>366.2211705969713</v>
       </c>
       <c r="W21" t="n">
-        <v>258.4772158284913</v>
+        <v>205.4688281275507</v>
       </c>
       <c r="X21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y21" t="n">
-        <v>68.08727130703953</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417487</v>
+        <v>463.3662739417493</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731519</v>
+        <v>410.0798406731528</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135974</v>
+        <v>369.3523344135981</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336853</v>
+        <v>187.7621275336857</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151393</v>
+        <v>65.14969672151388</v>
       </c>
       <c r="H23" t="n">
         <v>15.07888360609897</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95425539993045</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95425539993045</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95425539993045</v>
+        <v>70.95425539993049</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6654137389668</v>
+        <v>117.6654137389669</v>
       </c>
       <c r="M23" t="n">
         <v>198.5165373523121</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8334806559741</v>
+        <v>273.8334806559742</v>
       </c>
       <c r="O23" t="n">
         <v>308.0437757327564</v>
       </c>
       <c r="P23" t="n">
-        <v>322.3320671858747</v>
+        <v>308.0437757327564</v>
       </c>
       <c r="Q23" t="n">
-        <v>508.9332518113495</v>
+        <v>462.1048836376013</v>
       </c>
       <c r="R23" t="n">
-        <v>610.4740762111991</v>
+        <v>563.645708037451</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7082623631334</v>
+        <v>632.8798941893853</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049488</v>
+        <v>707.1158121312008</v>
       </c>
       <c r="U23" t="n">
         <v>753.9441803049488</v>
       </c>
       <c r="V23" t="n">
-        <v>730.279680139409</v>
+        <v>730.2796801394093</v>
       </c>
       <c r="W23" t="n">
-        <v>689.426614098501</v>
+        <v>689.4266140985017</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515941</v>
+        <v>626.4662243515946</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342387</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>204.4911578731353</v>
+        <v>378.075262191488</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07888360609897</v>
+        <v>188.6629879244517</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07888360609897</v>
+        <v>27.88287168548345</v>
       </c>
       <c r="E24" t="n">
         <v>15.07888360609897</v>
@@ -6108,10 +6108,10 @@
         <v>747.0010596398748</v>
       </c>
       <c r="X24" t="n">
-        <v>573.4169553215221</v>
+        <v>556.6111151184231</v>
       </c>
       <c r="Y24" t="n">
-        <v>383.0270108000703</v>
+        <v>556.6111151184231</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073099</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617561</v>
+        <v>757.2394630617567</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501327</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098454</v>
+        <v>406.0252176098461</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116748</v>
+        <v>198.6007675116755</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026075</v>
+        <v>63.71793511026085</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2499218476701</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940053</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916494</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636025</v>
+        <v>926.2039246636023</v>
       </c>
       <c r="N26" t="n">
         <v>1212.874017025872</v>
@@ -6245,28 +6245,28 @@
         <v>1654.840732969349</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436589</v>
       </c>
       <c r="R26" t="n">
         <v>1795.789199734231</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019535</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.5154439551</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.098866440395</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.6959002336529</v>
+        <v>225.3280582617209</v>
       </c>
       <c r="C27" t="n">
-        <v>196.6959002336529</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795021</v>
+        <v>73.8738080179502</v>
       </c>
       <c r="L27" t="n">
         <v>191.1995979629472</v>
@@ -6342,13 +6342,13 @@
         <v>733.2201194504008</v>
       </c>
       <c r="W27" t="n">
-        <v>679.4660242737518</v>
+        <v>670.4767457096968</v>
       </c>
       <c r="X27" t="n">
-        <v>600.8724462252603</v>
+        <v>450.9687513263933</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.231753160588</v>
+        <v>225.3280582617209</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91578399468463</v>
+        <v>38.86748357936223</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91578399468463</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91578399468463</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91578399468463</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91578399468463</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="J28" t="n">
-        <v>71.14504524338429</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="K28" t="n">
-        <v>71.14504524338429</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="L28" t="n">
-        <v>71.14504524338429</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="M28" t="n">
-        <v>71.14504524338429</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1390261192986</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1390261192986</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1390261192986</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192986</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192986</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204426</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974699</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923411</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627241</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170766</v>
+        <v>48.12252088170771</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583548</v>
+        <v>39.6059289058355</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468462</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073102</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617564</v>
+        <v>757.2394630617567</v>
       </c>
       <c r="E29" t="n">
-        <v>597.652712850133</v>
+        <v>597.6527128501334</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098456</v>
+        <v>406.0252176098461</v>
       </c>
       <c r="G29" t="n">
-        <v>198.600767511675</v>
+        <v>198.6007675116755</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026087</v>
+        <v>63.71793511026144</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476703</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940058</v>
+        <v>375.9353445940061</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916499</v>
+        <v>633.9996519916502</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636028</v>
+        <v>926.2039246636032</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
@@ -6485,28 +6485,28 @@
         <v>1777.37263543659</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.789199734231</v>
+        <v>1795.789199734232</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.617101019535</v>
+        <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503564</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176657</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.78148389884052</v>
+        <v>449.9618109188355</v>
       </c>
       <c r="C30" t="n">
-        <v>55.78148389884052</v>
+        <v>260.5495366517993</v>
       </c>
       <c r="D30" t="n">
-        <v>55.78148389884052</v>
+        <v>260.5495366517993</v>
       </c>
       <c r="E30" t="n">
-        <v>55.78148389884052</v>
+        <v>260.5495366517993</v>
       </c>
       <c r="F30" t="n">
-        <v>55.78148389884052</v>
+        <v>100.1218203690433</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91578399468463</v>
+        <v>88.92417169562519</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468463</v>
+        <v>88.92417169562519</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468463</v>
+        <v>88.92417169562519</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
         <v>73.87380801795021</v>
@@ -6570,22 +6570,22 @@
         <v>786.1332122026939</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6352041877672</v>
+        <v>784.6352041877673</v>
       </c>
       <c r="U30" t="n">
-        <v>760.655363453707</v>
+        <v>760.6553634537071</v>
       </c>
       <c r="V30" t="n">
-        <v>517.575645357341</v>
+        <v>733.2201194504008</v>
       </c>
       <c r="W30" t="n">
-        <v>248.1770760876324</v>
+        <v>679.4660242737518</v>
       </c>
       <c r="X30" t="n">
-        <v>244.3135557973883</v>
+        <v>675.6025039835079</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.3173368257756</v>
+        <v>449.9618109188355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91578399468463</v>
+        <v>107.0095532531897</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91578399468463</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="O31" t="n">
-        <v>102.7267694427737</v>
+        <v>112.6830192417078</v>
       </c>
       <c r="P31" t="n">
-        <v>256.1827763203647</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.1827763203647</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="R31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S31" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974702</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V31" t="n">
         <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170777</v>
+        <v>48.12252088170773</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583554</v>
+        <v>39.60592890583553</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468463</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848161</v>
+        <v>876.9831877848169</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505961</v>
+        <v>752.362737450597</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503066</v>
+        <v>593.6950624503075</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213532</v>
+        <v>402.9866424213541</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345172</v>
+        <v>196.4812675345173</v>
       </c>
       <c r="H32" t="n">
-        <v>62.517510344437</v>
+        <v>62.51751034443704</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
         <v>171.8693579078084</v>
@@ -6704,46 +6704,46 @@
         <v>377.4555662687721</v>
       </c>
       <c r="L32" t="n">
-        <v>614.52746057938</v>
+        <v>636.4206592810447</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6325188659614</v>
+        <v>929.5257175676261</v>
       </c>
       <c r="N32" t="n">
-        <v>1195.20339684286</v>
+        <v>1217.096595544524</v>
       </c>
       <c r="O32" t="n">
-        <v>1441.667626592878</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
-        <v>1638.971684015593</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1762.404372097462</v>
+        <v>1762.404372097463</v>
       </c>
       <c r="R32" t="n">
-        <v>1781.721722009732</v>
+        <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.46869850637</v>
+        <v>1768.468698506371</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.205191864603</v>
+        <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.647747624399</v>
+        <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508826</v>
+        <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
       </c>
       <c r="Y32" t="n">
-        <v>1175.464915195233</v>
+        <v>1175.464915195234</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>492.3035337984731</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="C33" t="n">
-        <v>302.8912595314368</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="D33" t="n">
-        <v>142.1111432924686</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="E33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="F33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346022</v>
+        <v>73.59245846346023</v>
       </c>
       <c r="L33" t="n">
         <v>190.9182484084572</v>
@@ -6798,31 +6798,31 @@
         <v>792.7949833132777</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.8518626482038</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="R33" t="n">
-        <v>785.8518626482038</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="S33" t="n">
-        <v>785.8518626482038</v>
+        <v>792.7949833132777</v>
       </c>
       <c r="T33" t="n">
-        <v>785.272929844611</v>
+        <v>792.2160505096849</v>
       </c>
       <c r="U33" t="n">
-        <v>762.2121643218846</v>
+        <v>769.1552849869586</v>
       </c>
       <c r="V33" t="n">
-        <v>735.6959955299122</v>
+        <v>533.6181418534859</v>
       </c>
       <c r="W33" t="n">
-        <v>682.8609755645971</v>
+        <v>264.2195725837772</v>
       </c>
       <c r="X33" t="n">
-        <v>679.916530485687</v>
+        <v>44.71157820047351</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8393867254082</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.04761765511232</v>
+        <v>72.0476176551123</v>
       </c>
       <c r="C34" t="n">
-        <v>119.5089431660958</v>
+        <v>119.5089431660957</v>
       </c>
       <c r="D34" t="n">
-        <v>119.5089431660958</v>
+        <v>188.0320540911282</v>
       </c>
       <c r="E34" t="n">
-        <v>119.5089431660958</v>
+        <v>188.0320540911282</v>
       </c>
       <c r="F34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="G34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="H34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="I34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="J34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="K34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="L34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="M34" t="n">
-        <v>119.5089431660958</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854717</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979496</v>
+        <v>238.1710034979498</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863107</v>
+        <v>228.7126565863109</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925157</v>
+        <v>153.7039245925158</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742327</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454998</v>
+        <v>46.00302090455005</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001165</v>
+        <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019465</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379699</v>
+        <v>623.0203756379703</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837507</v>
+        <v>544.0845948837512</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385737</v>
+        <v>477.7077411385742</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273268</v>
+        <v>377.2836627273273</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874163</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
         <v>51.57334671175848</v>
@@ -6938,49 +6938,49 @@
         <v>244.8928191962929</v>
       </c>
       <c r="K35" t="n">
-        <v>432.9546672129547</v>
+        <v>432.9546672129552</v>
       </c>
       <c r="L35" t="n">
-        <v>479.6658255519911</v>
+        <v>479.6658255519916</v>
       </c>
       <c r="M35" t="n">
-        <v>560.5169491653364</v>
+        <v>560.5169491653369</v>
       </c>
       <c r="N35" t="n">
-        <v>635.8338924689984</v>
+        <v>635.8338924689989</v>
       </c>
       <c r="O35" t="n">
-        <v>670.0441875457807</v>
+        <v>670.0441875457811</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0441875457807</v>
+        <v>670.0441875457811</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5614246445701</v>
+        <v>850.5614246445706</v>
       </c>
       <c r="R35" t="n">
-        <v>926.963323573761</v>
+        <v>926.9633235737615</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0585842550366</v>
+        <v>971.0585842550371</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726193</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781206</v>
+        <v>992.531171778121</v>
       </c>
       <c r="W35" t="n">
-        <v>926.02875825159</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190604</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160825</v>
+        <v>726.079129116083</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>371.0292908945902</v>
+        <v>705.0202110559317</v>
       </c>
       <c r="C36" t="n">
-        <v>181.6170166275539</v>
+        <v>515.6079367888954</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83690038858565</v>
+        <v>354.8278205499271</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83690038858565</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185123</v>
+        <v>58.79492441185124</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568482</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="R36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="S36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="T36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="U36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="V36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="W36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="X36" t="n">
-        <v>775.2058368861976</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="Y36" t="n">
-        <v>549.5651438215252</v>
+        <v>771.0543285965949</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379709</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837517</v>
       </c>
       <c r="D38" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385745</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273277</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874169</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I38" t="n">
         <v>51.57334671175848</v>
@@ -7175,49 +7175,49 @@
         <v>244.8928191962929</v>
       </c>
       <c r="K38" t="n">
-        <v>432.9546672129547</v>
+        <v>244.8928191962929</v>
       </c>
       <c r="L38" t="n">
-        <v>479.6658255519911</v>
+        <v>291.6039775353293</v>
       </c>
       <c r="M38" t="n">
-        <v>560.5169491653364</v>
+        <v>372.4551011486745</v>
       </c>
       <c r="N38" t="n">
-        <v>635.8338924689984</v>
+        <v>447.7720444523366</v>
       </c>
       <c r="O38" t="n">
-        <v>670.0441875457807</v>
+        <v>481.9823395291189</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457807</v>
+        <v>670.0441875457811</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5614246445701</v>
+        <v>850.5614246445706</v>
       </c>
       <c r="R38" t="n">
-        <v>926.963323573761</v>
+        <v>926.9633235737615</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550366</v>
+        <v>971.0585842550371</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726193</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781213</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515905</v>
+        <v>926.0287582515909</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190613</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160835</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705.0202110559317</v>
+        <v>154.3129088867578</v>
       </c>
       <c r="C39" t="n">
-        <v>515.6079367888954</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D39" t="n">
-        <v>354.8278205499271</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2646166713416</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185123</v>
+        <v>58.79492441185124</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568482</v>
@@ -7272,31 +7272,31 @@
         <v>777.9974492616689</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="T39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="U39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="V39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="W39" t="n">
-        <v>771.0543285965949</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="X39" t="n">
-        <v>771.0543285965949</v>
+        <v>558.4894548783652</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.0543285965949</v>
+        <v>332.8487618136929</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="P40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="R40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543693</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153498</v>
+        <v>708.1156967153501</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893254</v>
+        <v>478.5937231893256</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646145</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7418,25 +7418,25 @@
         <v>707.895931718276</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.349092698605</v>
+        <v>788.7470553316213</v>
       </c>
       <c r="N41" t="n">
-        <v>1341.268073369251</v>
+        <v>864.0639986352833</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.478368446034</v>
+        <v>952.4521758049274</v>
       </c>
       <c r="P41" t="n">
-        <v>1375.478368446034</v>
+        <v>1176.104335921391</v>
       </c>
       <c r="Q41" t="n">
-        <v>1375.478368446034</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.269939809112</v>
+        <v>1371.550579303025</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.269939809112</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="T41" t="n">
         <v>1403.269939809112</v>
@@ -7445,16 +7445,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X41" t="n">
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172822</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.2577893021868</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>188.8455150351505</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
         <v>28.06539879618224</v>
@@ -7509,31 +7509,31 @@
         <v>785.2259476692655</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692655</v>
+        <v>760.0516805455604</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692655</v>
+        <v>516.9719624491945</v>
       </c>
       <c r="W42" t="n">
-        <v>759.2740036081926</v>
+        <v>247.5733931794859</v>
       </c>
       <c r="X42" t="n">
-        <v>759.2740036081926</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y42" t="n">
-        <v>556.7936422291218</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>51.69757607713953</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="K43" t="n">
-        <v>51.69757607713953</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="L43" t="n">
         <v>130.1258067652159</v>
@@ -7612,7 +7612,7 @@
         <v>28.06539879618224</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.69757607713953</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="44">
@@ -7649,13 +7649,13 @@
         <v>190.6484249575439</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5827360122556</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L44" t="n">
-        <v>469.293894351292</v>
+        <v>475.9616206635643</v>
       </c>
       <c r="M44" t="n">
-        <v>550.1450179646373</v>
+        <v>604.3229000574991</v>
       </c>
       <c r="N44" t="n">
         <v>679.6398433611612</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>361.2301562979539</v>
+        <v>573.7950300161835</v>
       </c>
       <c r="C45" t="n">
-        <v>171.8178820309176</v>
+        <v>384.3827557491472</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06539879618224</v>
+        <v>223.602639510179</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06539879618224</v>
+        <v>50.03943563159345</v>
       </c>
       <c r="F45" t="n">
         <v>28.06539879618224</v>
@@ -7746,31 +7746,31 @@
         <v>785.2259476692655</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2259476692655</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="W45" t="n">
-        <v>759.2740036081926</v>
+        <v>752.3308829431187</v>
       </c>
       <c r="X45" t="n">
-        <v>539.766009224889</v>
+        <v>752.3308829431187</v>
       </c>
       <c r="Y45" t="n">
-        <v>539.766009224889</v>
+        <v>752.3308829431187</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.96717530900616</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>46.96717530900616</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>46.96717530900616</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>46.96717530900616</v>
+        <v>29.06138279449411</v>
       </c>
       <c r="F46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="G46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="H46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="I46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="J46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="K46" t="n">
-        <v>46.96717530900616</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="L46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="M46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="N46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="O46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5299361562477</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0478298795652</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T46" t="n">
         <v>130.1258067652159</v>
@@ -7846,10 +7846,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96717530900616</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.96717530900616</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>172.4111170279804</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -23264,19 +23264,19 @@
         <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120951</v>
+        <v>7.712864212696219</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904725</v>
+        <v>36.57144071423528</v>
       </c>
       <c r="G11" t="n">
-        <v>111.9100271632023</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700852</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294985</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
         <v>142.738019759611</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.459431452055071</v>
+        <v>7.459431452055156</v>
       </c>
       <c r="C14" t="n">
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>36.57144071423522</v>
+        <v>225.0574857904725</v>
       </c>
       <c r="G14" t="n">
-        <v>140.7982811297139</v>
+        <v>84.57654326850505</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8802695799879</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700846</v>
+        <v>62.87039510700856</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692367</v>
+        <v>44.32438889692372</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204226</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
@@ -23558,10 +23558,10 @@
         <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.65775849267163</v>
+        <v>15.65775849267172</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1316324.18300462</v>
+        <v>1316324.183004619</v>
       </c>
     </row>
     <row r="7">
@@ -26314,34 +26314,34 @@
         <v>22048.29987941149</v>
       </c>
       <c r="C2" t="n">
-        <v>22048.29987941149</v>
+        <v>22048.2998794115</v>
       </c>
       <c r="D2" t="n">
         <v>22061.66495636306</v>
       </c>
       <c r="E2" t="n">
-        <v>18993.06968703618</v>
+        <v>18993.06968703615</v>
       </c>
       <c r="F2" t="n">
-        <v>18993.06968703617</v>
+        <v>18993.06968703616</v>
       </c>
       <c r="G2" t="n">
         <v>22092.96372146341</v>
       </c>
       <c r="H2" t="n">
+        <v>22092.9637214634</v>
+      </c>
+      <c r="I2" t="n">
         <v>22092.96372146341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22092.9637214634</v>
       </c>
       <c r="J2" t="n">
         <v>22092.9637214634</v>
       </c>
       <c r="K2" t="n">
-        <v>22092.96372146339</v>
+        <v>22092.96372146338</v>
       </c>
       <c r="L2" t="n">
-        <v>22092.9637214634</v>
+        <v>22092.96372146341</v>
       </c>
       <c r="M2" t="n">
         <v>22092.96372146341</v>
@@ -26375,10 +26375,10 @@
         <v>279010.1432673797</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658169</v>
+        <v>95448.13167658179</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710104</v>
+        <v>143490.4163710102</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395815</v>
+        <v>96176.03924395819</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.9284985218</v>
+        <v>46128.92849852183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134123</v>
+        <v>72249.07655134115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>387618.2278065301</v>
       </c>
       <c r="E4" t="n">
+        <v>273007.168858993</v>
+      </c>
+      <c r="F4" t="n">
         <v>273007.1688589929</v>
       </c>
-      <c r="F4" t="n">
-        <v>273007.168858993</v>
-      </c>
       <c r="G4" t="n">
-        <v>343622.2351637971</v>
+        <v>343622.2351637972</v>
       </c>
       <c r="H4" t="n">
         <v>343622.2351637972</v>
       </c>
       <c r="I4" t="n">
-        <v>343622.2351637971</v>
+        <v>343622.2351637972</v>
       </c>
       <c r="J4" t="n">
         <v>344332.0121859593</v>
@@ -26451,7 +26451,7 @@
         <v>343507.3401207503</v>
       </c>
       <c r="N4" t="n">
-        <v>343507.3401207502</v>
+        <v>343507.3401207503</v>
       </c>
       <c r="O4" t="n">
         <v>343894.3694482117</v>
@@ -26479,34 +26479,34 @@
         <v>28641.35152034389</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.3515203439</v>
+        <v>28641.35152034389</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="I5" t="n">
-        <v>38671.63774774208</v>
+        <v>38671.63774774209</v>
       </c>
       <c r="J5" t="n">
+        <v>47448.92101020606</v>
+      </c>
+      <c r="K5" t="n">
         <v>47448.92101020608</v>
       </c>
-      <c r="K5" t="n">
-        <v>47448.92101020607</v>
-      </c>
       <c r="L5" t="n">
-        <v>47311.58842539589</v>
+        <v>47311.5884253959</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860084</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860084</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
       <c r="P5" t="n">
         <v>43796.55431105828</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399505.4107193238</v>
+        <v>-399509.877103529</v>
       </c>
       <c r="C6" t="n">
-        <v>-399505.4107193238</v>
+        <v>-399509.877103529</v>
       </c>
       <c r="D6" t="n">
-        <v>-400490.4336629697</v>
+        <v>-400493.5635394797</v>
       </c>
       <c r="E6" t="n">
-        <v>-561665.5939596804</v>
+        <v>-561975.5833631232</v>
       </c>
       <c r="F6" t="n">
-        <v>-282655.4506923007</v>
+        <v>-282965.4400957434</v>
       </c>
       <c r="G6" t="n">
-        <v>-455649.0408666575</v>
+        <v>-455649.0408666576</v>
       </c>
       <c r="H6" t="n">
         <v>-360200.9091900758</v>
@@ -26543,7 +26543,7 @@
         <v>-360200.9091900758</v>
       </c>
       <c r="J6" t="n">
-        <v>-513178.3858457124</v>
+        <v>-513178.3858457122</v>
       </c>
       <c r="K6" t="n">
         <v>-369687.9694747019</v>
@@ -26707,7 +26707,7 @@
         <v>297.4519284452682</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K2" t="n">
         <v>213.488029352129</v>
@@ -26811,22 +26811,22 @@
         <v>188.4860450762372</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.9472999335578</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.947299933558</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024331</v>
+        <v>445.4304305024332</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O4" t="n">
-        <v>350.817484952278</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
         <v>350.8174849522781</v>
@@ -26917,10 +26917,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640182</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315226</v>
+        <v>57.66116062315228</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844958</v>
+        <v>63.13094927844949</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495731</v>
+        <v>90.35623009495725</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640193</v>
+        <v>94.17786475640182</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,13 +27874,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>111.1237485033009</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27935,10 +27935,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>156.0746564816438</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.3107024086749</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27977,10 +27977,10 @@
         <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>144.7140833671753</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.5352158530052</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -28114,19 +28114,19 @@
         <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
-        <v>6.735077083103306</v>
+        <v>19.45714424871868</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09493255727770133</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>178.141763849541</v>
@@ -28178,16 +28178,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H12" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I12" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,13 +28220,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="T12" t="n">
-        <v>138.3867704071308</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U12" t="n">
-        <v>48.74202660261142</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>178.141763849541</v>
+        <v>126.4303868760998</v>
       </c>
       <c r="W12" t="n">
         <v>178.141763849541</v>
@@ -28251,46 +28251,46 @@
         <v>178.141763849541</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I13" t="n">
-        <v>164.8538042427314</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K13" t="n">
-        <v>67.03321058462942</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15595010613792</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M13" t="n">
-        <v>178.141763849541</v>
+        <v>65.13080310913952</v>
       </c>
       <c r="N13" t="n">
-        <v>161.1713061588356</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O13" t="n">
-        <v>178.141763849541</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P13" t="n">
         <v>58.4819617990068</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28351,22 +28351,22 @@
         <v>178.141763849541</v>
       </c>
       <c r="K14" t="n">
-        <v>6.735077083103306</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4083245674877</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>41.6167994531159</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.141763849541</v>
+        <v>19.45714424871866</v>
       </c>
       <c r="Q14" t="n">
         <v>178.141763849541</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>178.141763849541</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>125.7358448975026</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28457,16 +28457,16 @@
         <v>178.141763849541</v>
       </c>
       <c r="T15" t="n">
-        <v>26.48501221066925</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
-        <v>48.74202660261139</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V15" t="n">
-        <v>141.2988844055836</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>133.259223733936</v>
       </c>
       <c r="X15" t="n">
         <v>178.141763849541</v>
@@ -28488,10 +28488,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>163.3378974720841</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28506,10 +28506,10 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
-        <v>120.241573402485</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K16" t="n">
-        <v>171.0030221047516</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L16" t="n">
         <v>178.141763849541</v>
@@ -28524,7 +28524,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>58.4819617990068</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2193142604766</v>
@@ -28582,10 +28582,10 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567914</v>
+        <v>100.3578851301252</v>
       </c>
       <c r="K17" t="n">
         <v>6.735077083103306</v>
@@ -28606,7 +28606,7 @@
         <v>15.10088611163707</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.335711612336</v>
+        <v>278.2044759766083</v>
       </c>
       <c r="R17" t="n">
         <v>297.4519284452682</v>
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,13 +28694,13 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>129.6066076739355</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V18" t="n">
-        <v>121.278961464164</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.8982410577884</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28822,7 +28822,7 @@
         <v>297.4519284452682</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
         <v>6.735077083103306</v>
@@ -28843,10 +28843,10 @@
         <v>15.10088611163707</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037109</v>
+        <v>245.3357116123356</v>
       </c>
       <c r="R20" t="n">
-        <v>264.5831640809959</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="S20" t="n">
         <v>297.4519284452682</v>
@@ -28901,7 +28901,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393114</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28934,16 +28934,16 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>48.74202660261139</v>
+        <v>48.74202660261142</v>
       </c>
       <c r="V21" t="n">
-        <v>52.16287583916503</v>
+        <v>52.16287583916505</v>
       </c>
       <c r="W21" t="n">
-        <v>160.0380683562164</v>
+        <v>107.5597645322852</v>
       </c>
       <c r="X21" t="n">
-        <v>28.82686936323339</v>
+        <v>28.82686936323341</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>29.53350374104955</v>
+        <v>15.10088611163707</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2044759766083</v>
+        <v>245.3357116123356</v>
       </c>
       <c r="R23" t="n">
         <v>297.4519284452682</v>
@@ -29092,7 +29092,7 @@
         <v>297.4519284452682</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452682</v>
@@ -29120,10 +29120,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>159.1516236412091</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>45.46465116430142</v>
+        <v>28.82686936323341</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.89824105778843</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.4880293521286</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="27">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29405,19 +29405,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U27" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4880293521291</v>
+        <v>204.5886435737146</v>
       </c>
       <c r="X27" t="n">
-        <v>139.505272171464</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>144.6576559442226</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G28" t="n">
         <v>168.7008027322384</v>
@@ -29454,7 +29454,7 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
-        <v>155.826685774909</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
         <v>67.03321058462942</v>
@@ -29466,13 +29466,13 @@
         <v>25.2212239725016</v>
       </c>
       <c r="N28" t="n">
-        <v>213.4880293521291</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O28" t="n">
         <v>37.48281412028793</v>
       </c>
       <c r="P28" t="n">
-        <v>58.4819617990068</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
@@ -29481,25 +29481,25 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="29">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>129.0775947353046</v>
+        <v>137.6589654537349</v>
       </c>
       <c r="H30" t="n">
         <v>125.7358448975026</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393114</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29648,16 +29648,16 @@
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X30" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29703,10 +29703,10 @@
         <v>25.2212239725016</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575099</v>
+        <v>22.25518603152688</v>
       </c>
       <c r="O31" t="n">
-        <v>104.9686580072466</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P31" t="n">
         <v>213.488029352129</v>
@@ -29715,7 +29715,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R31" t="n">
-        <v>213.488029352129</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S31" t="n">
         <v>213.488029352129</v>
@@ -29776,7 +29776,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>192.283571688456</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="M32" t="n">
         <v>214.3979138113496</v>
@@ -29785,7 +29785,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884567</v>
       </c>
       <c r="P32" t="n">
         <v>214.3979138113496</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>66.41563007604846</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
@@ -29885,13 +29885,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3979138113496</v>
+        <v>7.467149213264292</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3979138113496</v>
@@ -29910,13 +29910,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>211.0401104955615</v>
       </c>
       <c r="G34" t="n">
         <v>168.7008027322384</v>
@@ -29940,7 +29940,7 @@
         <v>25.2212239725016</v>
       </c>
       <c r="N34" t="n">
-        <v>157.8529041435044</v>
+        <v>16.52441230575099</v>
       </c>
       <c r="O34" t="n">
         <v>37.48281412028793</v>
@@ -30010,7 +30010,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="K35" t="n">
-        <v>196.6965397261961</v>
+        <v>196.6965397261965</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>111.3767180324091</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446376404189</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.109993206706653</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4835771531863</v>
       </c>
       <c r="G37" t="n">
         <v>168.7008027322384</v>
@@ -30210,7 +30210,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>252.697967748908</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -30247,7 +30247,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="K38" t="n">
-        <v>196.6965397261961</v>
+        <v>6.735077083103306</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.10088611163707</v>
+        <v>205.0623487547303</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0590744345018</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.3767180324091</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>55.37690311117552</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446376404189</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.873689458423172</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30490,28 +30490,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>54.72513342713322</v>
+      </c>
+      <c r="P41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="N41" t="n">
+      <c r="Q41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>15.10088611163707</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>89.71843090037109</v>
-      </c>
       <c r="R41" t="n">
-        <v>222.9577334586307</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4661527464647</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U41" t="n">
         <v>241.0121589565495</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423172</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
@@ -30593,19 +30593,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>219.1792366848038</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>22.92872836874551</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30639,13 +30639,13 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
-        <v>120.241573402485</v>
+        <v>223.3328945833272</v>
       </c>
       <c r="K43" t="n">
         <v>67.03321058462942</v>
       </c>
       <c r="L43" t="n">
-        <v>111.3763851445989</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M43" t="n">
         <v>25.2212239725016</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.0121589565495</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30721,16 +30721,16 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
+        <v>6.735077083103306</v>
+      </c>
+      <c r="L44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>47.99005634402978</v>
       </c>
       <c r="N44" t="n">
-        <v>54.72513342713313</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>241.0121589565495</v>
@@ -30779,13 +30779,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>16.85735667419053</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>137.0691426528712</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446376404189</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423172</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7218599774646</v>
@@ -30839,7 +30839,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>142.6821856549643</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="G46" t="n">
         <v>168.7008027322384</v>
@@ -30882,7 +30882,7 @@
         <v>67.03321058462942</v>
       </c>
       <c r="L46" t="n">
-        <v>93.33045601244254</v>
+        <v>32.15595010613792</v>
       </c>
       <c r="M46" t="n">
         <v>25.2212239725016</v>
@@ -30903,10 +30903,10 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>241.0121589565495</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -30918,7 +30918,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>3.374773696533903</v>
+      </c>
+      <c r="M9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.167855661100898</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>101.3548838438618</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>12.72206716561538</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124886</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M11" t="n">
         <v>81.66780162964169</v>
       </c>
       <c r="N11" t="n">
-        <v>76.17265306602727</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762372</v>
+        <v>34.55585361291133</v>
       </c>
       <c r="P11" t="n">
         <v>163.0408777379039</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916992</v>
+        <v>88.42333294916989</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35541,52 +35541,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845729158</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C13" t="n">
-        <v>11.68458287756866</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.46562263731599</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G13" t="n">
-        <v>9.440961117302598</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238302</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.28795960680961</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705593</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770394</v>
+        <v>39.90957913663793</v>
       </c>
       <c r="N13" t="n">
-        <v>144.6468938530847</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6589497292531</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906441</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>101.3548838438618</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124886</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M14" t="n">
         <v>81.66780162964169</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4860450762372</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O14" t="n">
-        <v>76.17265306602724</v>
+        <v>34.55585361291133</v>
       </c>
       <c r="P14" t="n">
-        <v>163.040877737904</v>
+        <v>4.356258137081591</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916995</v>
+        <v>88.42333294916989</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,16 +35778,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845729442</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>21.66175625985908</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90019044705593</v>
       </c>
       <c r="K16" t="n">
-        <v>103.9698115201222</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L16" t="n">
         <v>145.9858137434031</v>
@@ -35817,10 +35817,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>140.658949729253</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871865</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>23.57100512444606</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.6172807119649</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>102.5664892927774</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559018</v>
+        <v>69.93352136559024</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880349</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368491</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871865</v>
+        <v>56.43976948871871</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>155.6172807119646</v>
       </c>
       <c r="R20" t="n">
-        <v>69.69772492850501</v>
+        <v>102.5664892927774</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93352136559018</v>
+        <v>69.93352136559024</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880349</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368491</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548193</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017689</v>
+        <v>84.46347816017686</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43976948871865</v>
+        <v>56.43976948871871</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36373,22 +36373,22 @@
         <v>34.55585361291133</v>
       </c>
       <c r="P23" t="n">
-        <v>14.43261762941247</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4860450762372</v>
+        <v>155.6172807119646</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>102.5664892927774</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93352136559018</v>
+        <v>69.93352136559024</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880349</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.30138199368491</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
         <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817707</v>
+        <v>295.1558309817703</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
@@ -36616,7 +36616,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963823</v>
+        <v>18.60259019963821</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.981514731997581</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.5611471336824</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.5851123724239</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9636170463781</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0060675531223</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>198.387143240492</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.7695984517579</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963819</v>
+        <v>18.60259019963821</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.81188813990406</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36999,19 +36999,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>5.73077372577589</v>
       </c>
       <c r="O31" t="n">
-        <v>67.48584388695863</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0060675531222</v>
+        <v>155.0060675531223</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05681797872155</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>207.6628367282462</v>
       </c>
       <c r="L32" t="n">
-        <v>239.4665599097049</v>
+        <v>261.5809020325984</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409913</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200992</v>
+        <v>290.4756343200991</v>
       </c>
       <c r="O32" t="n">
-        <v>248.9537674242609</v>
+        <v>226.8394253013681</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997125</v>
@@ -37090,7 +37090,7 @@
         <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885875</v>
+        <v>19.51247465885872</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,19 +37200,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.78099314638149</v>
+        <v>36.78099314638146</v>
       </c>
       <c r="C34" t="n">
-        <v>47.94073283937723</v>
+        <v>47.9407328393772</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.21526356063885</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>72.11322827711487</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>141.3284918377535</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>195.2721944288227</v>
       </c>
       <c r="K35" t="n">
-        <v>189.9614626430927</v>
+        <v>189.9614626430932</v>
       </c>
       <c r="L35" t="n">
         <v>47.18298822124886</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37543,7 +37543,7 @@
         <v>195.2721944288227</v>
       </c>
       <c r="K38" t="n">
-        <v>189.9614626430927</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>47.18298822124886</v>
@@ -37558,7 +37558,7 @@
         <v>34.55585361291133</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>189.9614626430932</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3406435341307</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.55669493473962</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37786,28 +37786,28 @@
         <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6799605861912</v>
+        <v>81.66780162964169</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291133</v>
+        <v>89.28098704004455</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9112728449124</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2937280561784</v>
       </c>
       <c r="R41" t="n">
-        <v>28.07229430613985</v>
+        <v>46.12671980405868</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.5460062100848</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>79.22043503846102</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.8708861423811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38017,16 +38017,16 @@
         <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2770818734462</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>47.18298822124886</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>81.66780162964169</v>
+        <v>129.6578579736715</v>
       </c>
       <c r="N44" t="n">
-        <v>130.8028539358827</v>
+        <v>76.07772050874956</v>
       </c>
       <c r="O44" t="n">
         <v>275.5680125694608</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.006044442739257</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.0852767381029</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>61.17450590630462</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.573630023553035</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.25048170267748</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09270354830699</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
